--- a/maze.xlsx
+++ b/maze.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="23380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20920" windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -305,8 +305,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="239">
+  <cellStyleXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -560,7 +562,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="239">
+  <cellStyles count="241">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -680,6 +682,7 @@
     <cellStyle name="ハイパーリンク" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="239" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -800,6 +803,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="240" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -836,11 +840,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2116053208"/>
-        <c:axId val="2117032424"/>
+        <c:axId val="2139715224"/>
+        <c:axId val="2139767928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2116053208"/>
+        <c:axId val="2139715224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +853,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117032424"/>
+        <c:crossAx val="2139767928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -857,7 +861,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117032424"/>
+        <c:axId val="2139767928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,14 +871,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116053208"/>
+        <c:crossAx val="2139715224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -914,11 +917,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2140193944"/>
-        <c:axId val="2140335896"/>
+        <c:axId val="2139805144"/>
+        <c:axId val="2139808552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2140193944"/>
+        <c:axId val="2139805144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140335896"/>
+        <c:crossAx val="2139808552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -935,7 +938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140335896"/>
+        <c:axId val="2139808552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,14 +948,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140193944"/>
+        <c:crossAx val="2139805144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -992,11 +994,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2108924296"/>
-        <c:axId val="2114606616"/>
+        <c:axId val="2139836840"/>
+        <c:axId val="2139840248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2108924296"/>
+        <c:axId val="2139836840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,7 +1007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114606616"/>
+        <c:crossAx val="2139840248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1013,7 +1015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114606616"/>
+        <c:axId val="2139840248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,14 +1025,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108924296"/>
+        <c:crossAx val="2139836840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1070,11 +1071,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2139731992"/>
-        <c:axId val="2139764840"/>
+        <c:axId val="2139868472"/>
+        <c:axId val="2139871608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2139731992"/>
+        <c:axId val="2139868472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +1084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139764840"/>
+        <c:crossAx val="2139871608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1091,7 +1092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139764840"/>
+        <c:axId val="2139871608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,14 +1102,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139731992"/>
+        <c:crossAx val="2139868472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1592,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AI66"/>
+  <dimension ref="A2:AI77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="T81" sqref="T81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0"/>
@@ -2767,6 +2767,54 @@
       <c r="V66" s="5"/>
       <c r="W66" s="6"/>
     </row>
+    <row r="71" spans="1:23" ht="21" customHeight="1">
+      <c r="G71" s="6"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="6"/>
+    </row>
+    <row r="72" spans="1:23" ht="21" customHeight="1">
+      <c r="G72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="M72" s="5"/>
+    </row>
+    <row r="73" spans="1:23" ht="21" customHeight="1">
+      <c r="G73" s="6"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="M73" s="6"/>
+    </row>
+    <row r="74" spans="1:23" ht="21" customHeight="1">
+      <c r="G74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="M74" s="5"/>
+    </row>
+    <row r="75" spans="1:23" ht="21" customHeight="1">
+      <c r="G75" s="6"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="6"/>
+    </row>
+    <row r="76" spans="1:23" ht="21" customHeight="1">
+      <c r="G76" s="5"/>
+      <c r="M76" s="5"/>
+    </row>
+    <row r="77" spans="1:23" ht="21" customHeight="1">
+      <c r="G77" s="6"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
